--- a/MakeMyTrip/src/test/resources/MakeMyTripData.xlsx
+++ b/MakeMyTrip/src/test/resources/MakeMyTripData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cognizantonline-my.sharepoint.com/personal/2421380_cognizant_com/Documents/Desktop/Workspace/MakeMyTrip/src/test/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2421380\git\repository\MakeMyTrip\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="8_{E1CD1818-E357-4F50-994B-E1E7EB3D544A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D17E385-92A0-4D0E-B12C-3666B6149EE5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9244333-A101-43CB-8F14-4D45DD807FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cabs" sheetId="6" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>Destination</t>
   </si>
@@ -83,12 +83,6 @@
     <t>Indonesia</t>
   </si>
   <si>
-    <t>Wed Dec 10 2025</t>
-  </si>
-  <si>
-    <t>Thu Dec 18 2025</t>
-  </si>
-  <si>
     <t>TravelMonth</t>
   </si>
   <si>
@@ -125,10 +119,10 @@
     <t>ReturnDate</t>
   </si>
   <si>
-    <t>December 2025</t>
-  </si>
-  <si>
     <t>MobileNumber</t>
+  </si>
+  <si>
+    <t>Sat Oct 11 2025</t>
   </si>
 </sst>
 </file>
@@ -202,13 +196,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -225,10 +220,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -520,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41C9A28E-5936-4B1E-8DBF-00A807DD9ED4}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -531,13 +522,13 @@
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -557,19 +548,19 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -594,7 +585,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -618,13 +609,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2">
-        <v>1122334455</v>
+      <c r="C2" s="4">
+        <v>9112233445</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>17</v>
@@ -642,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E998DD70-1572-4872-A3FB-F4627EFE757F}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -653,13 +644,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -667,13 +658,13 @@
         <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -697,7 +688,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
@@ -722,18 +713,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
